--- a/players_stats/Jerian Grant.xlsx
+++ b/players_stats/Jerian Grant.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,15 +552,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2014-15</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,92 +570,92 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>1377</v>
+        <v>1265</v>
       </c>
       <c r="K2" t="n">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="L2" t="n">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="M2" t="n">
-        <v>0.352</v>
+        <v>0.394</v>
       </c>
       <c r="N2" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="O2" t="n">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="P2" t="n">
-        <v>0.314</v>
+        <v>0.22</v>
       </c>
       <c r="Q2" t="n">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="R2" t="n">
-        <v>196</v>
+        <v>291</v>
       </c>
       <c r="S2" t="n">
-        <v>0.383</v>
+        <v>0.454</v>
       </c>
       <c r="T2" t="n">
         <v>0.422</v>
       </c>
       <c r="U2" t="n">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="V2" t="n">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="W2" t="n">
-        <v>0.591</v>
+        <v>0.78</v>
       </c>
       <c r="X2" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="Z2" t="n">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="AA2" t="n">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AB2" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AC2" t="n">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AE2" t="n">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="AF2" t="n">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 203</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 97 </t>
+          <t xml:space="preserve"> 92 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -676,15 +676,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2015-16</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -694,92 +694,92 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I3" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="J3" t="n">
-        <v>2066</v>
+        <v>1028</v>
       </c>
       <c r="K3" t="n">
-        <v>251</v>
+        <v>128</v>
       </c>
       <c r="L3" t="n">
-        <v>599</v>
+        <v>301</v>
       </c>
       <c r="M3" t="n">
-        <v>0.419</v>
+        <v>0.425</v>
       </c>
       <c r="N3" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="O3" t="n">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="P3" t="n">
-        <v>0.24</v>
+        <v>0.366</v>
       </c>
       <c r="Q3" t="n">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="R3" t="n">
-        <v>453</v>
+        <v>167</v>
       </c>
       <c r="S3" t="n">
-        <v>0.477</v>
+        <v>0.473</v>
       </c>
       <c r="T3" t="n">
-        <v>0.448</v>
+        <v>0.507</v>
       </c>
       <c r="U3" t="n">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="V3" t="n">
-        <v>322</v>
+        <v>73</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6579999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="X3" t="n">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>262</v>
+        <v>94</v>
       </c>
       <c r="Z3" t="n">
-        <v>361</v>
+        <v>111</v>
       </c>
       <c r="AA3" t="n">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="AB3" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AC3" t="n">
-        <v>127</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="AE3" t="n">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="AF3" t="n">
-        <v>749</v>
+        <v>370</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 203</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 97 </t>
+          <t xml:space="preserve"> 92 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -800,15 +800,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2016-17</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -818,92 +818,92 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>1531</v>
+        <v>1686</v>
       </c>
       <c r="K4" t="n">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="L4" t="n">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="M4" t="n">
-        <v>0.463</v>
+        <v>0.416</v>
       </c>
       <c r="N4" t="n">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="O4" t="n">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="P4" t="n">
-        <v>0.371</v>
+        <v>0.326</v>
       </c>
       <c r="Q4" t="n">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="R4" t="n">
-        <v>212</v>
+        <v>316</v>
       </c>
       <c r="S4" t="n">
-        <v>0.514</v>
+        <v>0.468</v>
       </c>
       <c r="T4" t="n">
-        <v>0.529</v>
+        <v>0.476</v>
       </c>
       <c r="U4" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="V4" t="n">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="W4" t="n">
-        <v>0.612</v>
+        <v>0.745</v>
       </c>
       <c r="X4" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Y4" t="n">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="Z4" t="n">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="AA4" t="n">
-        <v>46</v>
+        <v>342</v>
       </c>
       <c r="AB4" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="AC4" t="n">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="AE4" t="n">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="AF4" t="n">
-        <v>437</v>
+        <v>619</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 203</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 97 </t>
+          <t xml:space="preserve"> 92 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -924,15 +924,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2016-17</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -942,92 +942,92 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>41</v>
+        <v>939</v>
       </c>
       <c r="K5" t="n">
+        <v>92</v>
+      </c>
+      <c r="L5" t="n">
+        <v>220</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="N5" t="n">
+        <v>40</v>
+      </c>
+      <c r="O5" t="n">
+        <v>110</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>52</v>
+      </c>
+      <c r="R5" t="n">
+        <v>110</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="U5" t="n">
+        <v>26</v>
+      </c>
+      <c r="V5" t="n">
+        <v>40</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="X5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>79</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>98</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>156</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC5" t="n">
         <v>6</v>
       </c>
-      <c r="L5" t="n">
-        <v>17</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6</v>
-      </c>
-      <c r="R5" t="n">
-        <v>15</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
-      <c r="V5" t="n">
-        <v>8</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>4</v>
-      </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="AE5" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="n">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 203</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 97 </t>
+          <t xml:space="preserve"> 92 </t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -1048,17 +1048,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2016-17</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>22</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
+          <t>Career</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NBA</t>
@@ -1066,92 +1060,92 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="J6" t="n">
-        <v>1490</v>
+        <v>4918</v>
       </c>
       <c r="K6" t="n">
-        <v>146</v>
+        <v>583</v>
       </c>
       <c r="L6" t="n">
-        <v>311</v>
+        <v>1415</v>
       </c>
       <c r="M6" t="n">
-        <v>0.469</v>
+        <v>0.412</v>
       </c>
       <c r="N6" t="n">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="O6" t="n">
-        <v>114</v>
+        <v>531</v>
       </c>
       <c r="P6" t="n">
-        <v>0.377</v>
+        <v>0.324</v>
       </c>
       <c r="Q6" t="n">
-        <v>103</v>
+        <v>411</v>
       </c>
       <c r="R6" t="n">
-        <v>197</v>
+        <v>884</v>
       </c>
       <c r="S6" t="n">
-        <v>0.523</v>
+        <v>0.465</v>
       </c>
       <c r="T6" t="n">
-        <v>0.539</v>
+        <v>0.473</v>
       </c>
       <c r="U6" t="n">
-        <v>86</v>
+        <v>327</v>
       </c>
       <c r="V6" t="n">
-        <v>139</v>
+        <v>424</v>
       </c>
       <c r="W6" t="n">
-        <v>0.619</v>
+        <v>0.7709999999999999</v>
       </c>
       <c r="X6" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="n">
-        <v>161</v>
+        <v>434</v>
       </c>
       <c r="Z6" t="n">
-        <v>199</v>
+        <v>524</v>
       </c>
       <c r="AA6" t="n">
-        <v>46</v>
+        <v>796</v>
       </c>
       <c r="AB6" t="n">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="AC6" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AD6" t="n">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="AE6" t="n">
-        <v>144</v>
+        <v>400</v>
       </c>
       <c r="AF6" t="n">
-        <v>421</v>
+        <v>1665</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 203</t>
+          <t xml:space="preserve"> 193</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 97 </t>
+          <t xml:space="preserve"> 92 </t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1160,497 +1154,7 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2017-18</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>23</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>81</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1647</v>
-      </c>
-      <c r="K7" t="n">
-        <v>244</v>
-      </c>
-      <c r="L7" t="n">
-        <v>456</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="N7" t="n">
-        <v>32</v>
-      </c>
-      <c r="O7" t="n">
-        <v>110</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.291</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>212</v>
-      </c>
-      <c r="R7" t="n">
-        <v>346</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.613</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="U7" t="n">
-        <v>162</v>
-      </c>
-      <c r="V7" t="n">
-        <v>240</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.675</v>
-      </c>
-      <c r="X7" t="n">
-        <v>86</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>233</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>319</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>57</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>31</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>77</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>54</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>155</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>682</v>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 203</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 97 </t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ7" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2018-19</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>24</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>80</v>
-      </c>
-      <c r="I8" t="n">
-        <v>77</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2612</v>
-      </c>
-      <c r="K8" t="n">
-        <v>409</v>
-      </c>
-      <c r="L8" t="n">
-        <v>823</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.4970000000000001</v>
-      </c>
-      <c r="N8" t="n">
-        <v>115</v>
-      </c>
-      <c r="O8" t="n">
-        <v>293</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>294</v>
-      </c>
-      <c r="R8" t="n">
-        <v>530</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.555</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.5670000000000001</v>
-      </c>
-      <c r="U8" t="n">
-        <v>157</v>
-      </c>
-      <c r="V8" t="n">
-        <v>221</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="X8" t="n">
-        <v>96</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>321</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>417</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>79</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>61</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>214</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1090</v>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 203</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 97 </t>
-        </is>
-      </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ8" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>25</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>201</v>
-      </c>
-      <c r="K9" t="n">
-        <v>29</v>
-      </c>
-      <c r="L9" t="n">
-        <v>68</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.426</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7</v>
-      </c>
-      <c r="O9" t="n">
-        <v>27</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>22</v>
-      </c>
-      <c r="R9" t="n">
-        <v>41</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.537</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="U9" t="n">
-        <v>11</v>
-      </c>
-      <c r="V9" t="n">
-        <v>17</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.647</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y9" t="n">
         <v>19</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>76</v>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 203</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 97 </t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ9" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Career</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>392</v>
-      </c>
-      <c r="I10" t="n">
-        <v>145</v>
-      </c>
-      <c r="J10" t="n">
-        <v>9434</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1209</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2626</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="N10" t="n">
-        <v>281</v>
-      </c>
-      <c r="O10" t="n">
-        <v>848</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.331</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>928</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1778</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.522</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="U10" t="n">
-        <v>746</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1140</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.654</v>
-      </c>
-      <c r="X10" t="n">
-        <v>374</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1151</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1525</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>407</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>223</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>455</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>370</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>894</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>3445</v>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 203</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 97 </t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ10" t="n">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
